--- a/code/applications/depression/Hispanic_Incidence.xlsx
+++ b/code/applications/depression/Hispanic_Incidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ruchita/Documents/JHU/HIV Compartmental Model/ending_hiv/code/applications/depression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A059952-871C-E743-B6DC-844B26DB492D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DB555C-ED7E-CD4C-8CB2-8EFD95DF692D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10600" yWindow="960" windowWidth="17820" windowHeight="15880" xr2:uid="{A720BEC2-9914-3B4F-BCAB-11C1AB8D41CF}"/>
+    <workbookView xWindow="10600" yWindow="820" windowWidth="17820" windowHeight="15880" xr2:uid="{A720BEC2-9914-3B4F-BCAB-11C1AB8D41CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,7 +407,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -425,10 +425,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>8.23</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="C2" s="1">
-        <v>16.399999999999999</v>
+        <v>0.16400000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -436,10 +436,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>6.89</v>
+        <v>6.8900000000000003E-2</v>
       </c>
       <c r="C3" s="1">
-        <v>9.43</v>
+        <v>9.4299999999999995E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -447,10 +447,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>3.59</v>
+        <v>3.5900000000000001E-2</v>
       </c>
       <c r="C4" s="1">
-        <v>7.88</v>
+        <v>7.8799999999999995E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -458,10 +458,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>3.37</v>
+        <v>3.3700000000000001E-2</v>
       </c>
       <c r="C5" s="1">
-        <v>4</v>
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
